--- a/benchmarking/mhc-ligands-benchmarking.xlsx
+++ b/benchmarking/mhc-ligands-benchmarking.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Preprocessing Query (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Searching Time (s)</t>
+    <t xml:space="preserve">Search Time (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Total Time (s)</t>
@@ -55,22 +55,22 @@
     <t xml:space="preserve">Horspool algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Knuth-Morris-Pratt algorithm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boyer-Moore algorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Knuth-Morris-Pratt algorithm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Z algorithm</t>
   </si>
   <si>
     <t xml:space="preserve">BLAST</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAMOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMseqs2</t>
+    <t xml:space="preserve">* DIAMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Mmseqs2</t>
   </si>
 </sst>
 </file>
@@ -190,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,10 +311,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>3651.484</v>
+        <v>2631.979</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>3651.484</v>
+        <v>2631.979</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>8</v>
@@ -334,10 +334,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2631.979</v>
+        <v>3651.484</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2631.979</v>
+        <v>3651.484</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -438,46 +438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="AMJ14" s="0"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/benchmarking/mhc-ligands-benchmarking.xlsx
+++ b/benchmarking/mhc-ligands-benchmarking.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">NmerMatch</t>
+    <t xml:space="preserve">NmerMatch (J Greenbaum)</t>
   </si>
   <si>
     <t xml:space="preserve">Horspool algorithm</t>
@@ -193,7 +193,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,48 +232,48 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>37.839</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>37.91</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="B2" s="0" t="n">
+        <v>39.617</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>39.697</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>55.0901165008545</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0.00350117683410644</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>68.844</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="B3" s="0" t="n">
+        <v>53.716</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0055389404296875</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>12.319</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>66.041</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -373,22 +373,22 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1.30349087715149</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>6.657</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>7.961</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="B8" s="0" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>12.555</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>98.304</v>
       </c>
     </row>
@@ -396,22 +396,22 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0.245501756668091</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>4.656</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>4.901</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="n">
+      <c r="B9" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5.262</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>1.495</v>
       </c>
     </row>
@@ -419,22 +419,22 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>2.35403919219971</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>2.886</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="n">
+      <c r="B10" s="0" t="n">
+        <v>2.645</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/benchmarking/mhc-ligands-benchmarking.xlsx
+++ b/benchmarking/mhc-ligands-benchmarking.xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">Horspool algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Boyer-Moore algorithm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Knuth-Morris-Pratt algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer-Moore algorithm</t>
   </si>
   <si>
     <t xml:space="preserve">Z algorithm</t>
@@ -193,7 +193,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10:G10"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,140 +232,140 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>39.617</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0.081</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>39.697</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>53.716</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0055389404296875</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>12.319</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>66.041</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>1011.443</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>1011.443</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1310.44</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1310.44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>2631.979</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2631.979</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5424.44</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5424.44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>3651.484</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>3651.484</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3806.48</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3806.48</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>5197.92</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>5197.92</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6781.98</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>6781.98</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -373,22 +373,22 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1.265</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>11.29</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>12.555</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>98.304</v>
       </c>
     </row>
@@ -396,22 +396,22 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>5.011</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>5.262</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>1.495</v>
       </c>
     </row>
@@ -419,22 +419,22 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>2.645</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>0.497</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>3.142</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
